--- a/myAPI/3_readPIG/layout.xlsx
+++ b/myAPI/3_readPIG/layout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\1_readIMU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\3_readPIG-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626CF46F-84EC-48A9-86D5-330EA9C5821A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A590CD-DDA6-4406-BDCB-957AA6502EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -135,6 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -541,7 +548,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -588,23 +595,25 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="3"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -615,11 +624,11 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -630,11 +639,11 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -645,11 +654,11 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -660,16 +669,26 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">

--- a/myAPI/3_readPIG/layout.xlsx
+++ b/myAPI/3_readPIG/layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\3_readPIG-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\3_readPIG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A590CD-DDA6-4406-BDCB-957AA6502EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948207D-D317-4879-B0FF-2ABB1652098A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="2640" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/myAPI/3_readPIG/layout.xlsx
+++ b/myAPI/3_readPIG/layout.xlsx
@@ -8,18 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\3_readPIG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948207D-D317-4879-B0FF-2ABB1652098A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA8EDF9-6878-4A0B-A66E-1207A2E1A20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="2640" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13860" yWindow="3075" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,7 +53,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,13 +116,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -142,6 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -545,10 +562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F08198-54E2-4CF4-A1E9-1BAF976AA403}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -556,7 +573,7 @@
     <col min="1" max="22" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -587,8 +604,56 @@
       <c r="K1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1">
+        <f>K1+1</f>
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <f t="shared" ref="M1:W1" si="0">L1+1</f>
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -596,26 +661,23 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -624,13 +686,23 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -639,13 +711,23 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -654,13 +736,23 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -669,13 +761,23 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -684,25 +786,155 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/myAPI/3_readPIG/layout.xlsx
+++ b/myAPI/3_readPIG/layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\3_readPIG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Documents\GitHub\adamShiau_Python\myAPI\3_readPIG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA8EDF9-6878-4A0B-A66E-1207A2E1A20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C677F100-DCEA-4115-95F5-F381B918B967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="3075" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -159,6 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -445,12 +452,12 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="19" width="3.5703125" customWidth="1"/>
+    <col min="1" max="19" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>0</v>
       </c>
@@ -482,20 +489,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -506,7 +513,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -517,7 +524,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -528,27 +535,27 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -565,15 +572,15 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="22" width="3.5703125" customWidth="1"/>
+    <col min="1" max="22" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>0</v>
       </c>
@@ -653,7 +660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -664,11 +671,11 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -676,8 +683,13 @@
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -702,7 +714,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -727,7 +739,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -752,7 +764,7 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -777,7 +789,7 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -802,7 +814,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -827,7 +839,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -852,7 +864,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -877,7 +889,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -902,7 +914,7 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -927,12 +939,12 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>

--- a/myAPI/3_readPIG/layout.xlsx
+++ b/myAPI/3_readPIG/layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Documents\GitHub\adamShiau_Python\myAPI\3_readPIG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\3_readPIG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C677F100-DCEA-4115-95F5-F381B918B967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BBF52B-2CC0-4F2E-9C2F-55B71059882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25980" yWindow="1260" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -452,12 +452,12 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="3.625" customWidth="1"/>
+    <col min="1" max="19" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -489,20 +489,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -513,7 +513,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -524,7 +524,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -535,27 +535,27 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -572,15 +572,15 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="3.625" customWidth="1"/>
+    <col min="1" max="22" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -668,14 +668,14 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="1"/>
       <c r="H2" s="11"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -687,9 +687,11 @@
       <c r="G3" s="13"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -714,7 +716,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -739,7 +741,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -764,7 +766,7 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -789,7 +791,7 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -814,7 +816,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -839,7 +841,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -864,7 +866,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -889,7 +891,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -914,7 +916,7 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -939,12 +941,12 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
